--- a/工作表 在 大气物理二次报告草稿.xlsx
+++ b/工作表 在 大气物理二次报告草稿.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Yunnan Uni\Atmos Physical\Wenxian_read\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB6D35C-0296-4356-8749-1D07FF335E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F4991E-5878-4001-B259-3319D852661C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="0" windowWidth="18160" windowHeight="15280" xr2:uid="{CD9DB44A-A79E-41A9-8AAE-047606B7DCE8}"/>
+    <workbookView xWindow="2380" yWindow="0" windowWidth="18160" windowHeight="15280" activeTab="1" xr2:uid="{CD9DB44A-A79E-41A9-8AAE-047606B7DCE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>受影响的因数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -923,6 +924,249 @@
         <charset val="129"/>
       </rPr>
       <t>失</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>若在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>世纪末把全球升温控制在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.5℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以内，则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年开始的未来碳排放空间是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400—500 Gt CO2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>若把温控目标设定为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2℃，则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年开始的未来碳排放空间是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1150—1350 Gt CO2。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -931,7 +1175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1011,13 +1255,32 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1034,24 +1297,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1369,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DED351-8FF4-4968-A88C-3606C7364733}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:M18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" activeCellId="1" sqref="A27:I29 A1:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1383,518 +1661,544 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3">
         <v>1.5</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4" t="s">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="31.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="62.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="4" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="2" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:C6"/>
+    <mergeCell ref="D3:F6"/>
+    <mergeCell ref="G3:I6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="D7:F10"/>
+    <mergeCell ref="G7:I10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D11:F14"/>
+    <mergeCell ref="G11:I14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="D15:F18"/>
+    <mergeCell ref="G15:I18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="J1:M2"/>
+    <mergeCell ref="J3:M6"/>
+    <mergeCell ref="J7:M10"/>
+    <mergeCell ref="J11:M14"/>
+    <mergeCell ref="J15:M18"/>
     <mergeCell ref="J23:M26"/>
     <mergeCell ref="D19:I22"/>
     <mergeCell ref="A20:A22"/>
@@ -1906,18 +2210,315 @@
     <mergeCell ref="J27:M29"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="J19:M22"/>
-    <mergeCell ref="J1:M2"/>
-    <mergeCell ref="J3:M6"/>
-    <mergeCell ref="J7:M10"/>
-    <mergeCell ref="J11:M14"/>
-    <mergeCell ref="J15:M18"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CC1130-6C65-4E5B-8E48-6FB2364CC3EC}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="16.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:C18"/>
     <mergeCell ref="D15:F18"/>
     <mergeCell ref="G15:I18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="D19:F21"/>
+    <mergeCell ref="G19:I21"/>
     <mergeCell ref="D7:F10"/>
     <mergeCell ref="G7:I10"/>
     <mergeCell ref="A11:A14"/>
@@ -1930,11 +2531,12 @@
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:C10"/>
     <mergeCell ref="D3:F6"/>
     <mergeCell ref="G3:I6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>